--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-344872.5370875997</v>
+        <v>-330955.1706897304</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16631928.64792683</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484449</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9050348.411632942</v>
+        <v>9116360.359664859</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>53.23077567590783</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>359.6453031753561</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.2017488798277</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>125.3449369214297</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,13 +896,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>180.2960919911538</v>
       </c>
       <c r="D5" t="n">
-        <v>325.16745234556</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,10 +911,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.6306905111304</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>134.7806822622884</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>227.7661331012013</v>
+        <v>389.1585143764905</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>261.4557957275854</v>
+        <v>236.0263989200893</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>284.7698830407492</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.51170128839221</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1430,10 +1430,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907162</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655131</v>
+        <v>358.9907805655132</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>41.28837002808771</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>10.04027365719932</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800596</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776978</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2606,7 +2606,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>79.86552601431211</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225773</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545403</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F38" t="n">
-        <v>407.3530449561369</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242213</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925392</v>
+        <v>82.40273359886993</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169443</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174058</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267643</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277833</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934401</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>112.0152145377553</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602943</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095264</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811742</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>82.40273359886993</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>58.49499511222233</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602943</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009272</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092794</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981684</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157528</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320844</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>82.40273359886989</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770218</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639455</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>414.5384173073509</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842116</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>170.4234729224758</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326386</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452991</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>26.24351759540904</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432423</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602942</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>268.8935188904399</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999013</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183.417919242928</v>
+        <v>1375.885697992943</v>
       </c>
       <c r="C2" t="n">
-        <v>149.3158504667553</v>
+        <v>1341.783629216771</v>
       </c>
       <c r="D2" t="n">
-        <v>117.4464696816039</v>
+        <v>905.873844391215</v>
       </c>
       <c r="E2" t="n">
-        <v>87.71212888030313</v>
+        <v>472.0990995495102</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>448.272073999122</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238587</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238587</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238587</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>46.87424262238587</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>626.942995074411</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>626.942995074411</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>626.942995074411</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>626.942995074411</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1207.011747526436</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1787.080499978461</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2174.558066366237</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119294</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2260.060257303131</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2039.993030176169</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1780.770727493186</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1780.770727493186</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1417.492643477675</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.003613428182</v>
+        <v>1402.39058409739</v>
       </c>
       <c r="Y2" t="n">
-        <v>609.7174897278358</v>
+        <v>1398.144864437447</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>553.0459876136787</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>446.5895264503209</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.4992375968742</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>257.3788229238279</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>173.9949845399895</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>88.6098948061734</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238587</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.93791578284348</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.4962407490558</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>397.4962407490558</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>397.4962407490558</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>397.4962407490558</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>397.4962407490558</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>472.1335349227546</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.941226006855</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1710.114004101195</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.658566549578</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.479922880179</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1340.143375880148</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1141.025857942147</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.703103675341</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.8356679142211</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.3498886934418</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>1125.932403234267</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>953.3706917174922</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>787.4926989190149</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>617.7346951697522</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>441.0276411315083</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>275.436366157336</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.5341918477105</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238587</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238587</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>321.6326971935215</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>739.8425789614826</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1199.326446142396</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1641.58524930004</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2061.254498525821</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119294</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119294</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2322.294309824666</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2163.052941122662</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1917.173494701117</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1917.173494701117</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.797825151298</v>
+        <v>1917.173494701117</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.77142073759</v>
+        <v>1790.562447305734</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>1545.170692639146</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>1317.751021953254</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>2223.59842635773</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D5" t="n">
-        <v>1292.207393204728</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2245.857592802234</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V7" t="n">
-        <v>951.1357312073217</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>679.1093267936133</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X7" t="n">
-        <v>433.7175721270257</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.297901441134</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1777.08642487697</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C8" t="n">
-        <v>1338.943952060393</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>903.0341672348376</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>469.2594223931328</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>41.39199280234051</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>41.39199280234051</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>41.39199280234051</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>983.2980333222198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>983.2980333222198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>983.2980333222198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>983.2980333222198</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>983.2980333222198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.537964281148</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720969</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474026</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474026</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474026</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.760171474026</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.760171474026</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1818.693370361701</v>
+        <v>1830.70259408799</v>
       </c>
       <c r="X8" t="n">
-        <v>1803.591310981416</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1799.345591321473</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207734</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574156</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039689</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309226</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470842</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326805</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993811</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561505</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959719</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213157</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005365</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.033364041362</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>947.4716525245868</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>781.5936597261095</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>611.8356559768469</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>435.128601938603</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>269.5373269644307</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>129.6351526548052</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948052</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97520342948052</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>459.1850851974415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>918.6689523783547</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1360.927755535999</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1780.597004761781</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474026</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474026</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2048.760171474026</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2048.760171474026</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2048.760171474026</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>2048.760171474026</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V10" t="n">
-        <v>2048.760171474026</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>1784.663408112828</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X10" t="n">
-        <v>1539.271653446241</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y10" t="n">
-        <v>1311.851982760349</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2210.453047083388</v>
+        <v>2505.133359278203</v>
       </c>
       <c r="C11" t="n">
-        <v>1772.310574266812</v>
+        <v>2066.990886461627</v>
       </c>
       <c r="D11" t="n">
-        <v>1336.400789441256</v>
+        <v>1631.081101636071</v>
       </c>
       <c r="E11" t="n">
-        <v>902.6260445995514</v>
+        <v>1197.306356794366</v>
       </c>
       <c r="F11" t="n">
-        <v>474.7586150087592</v>
+        <v>769.4389272035742</v>
       </c>
       <c r="G11" t="n">
-        <v>73.36078363202303</v>
+        <v>368.041095826838</v>
       </c>
       <c r="H11" t="n">
-        <v>73.36078363202303</v>
+        <v>80.39474932103074</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916303</v>
+        <v>79.97795994817075</v>
       </c>
       <c r="J11" t="n">
-        <v>508.1986817120809</v>
+        <v>515.2326474010886</v>
       </c>
       <c r="K11" t="n">
-        <v>1342.548973670259</v>
+        <v>1349.582939359267</v>
       </c>
       <c r="L11" t="n">
-        <v>2103.236987413104</v>
+        <v>1465.208017504876</v>
       </c>
       <c r="M11" t="n">
-        <v>2103.236987413104</v>
+        <v>2454.935271863489</v>
       </c>
       <c r="N11" t="n">
-        <v>2103.236987413104</v>
+        <v>2454.935271863489</v>
       </c>
       <c r="O11" t="n">
-        <v>2103.236987413104</v>
+        <v>2454.935271863489</v>
       </c>
       <c r="P11" t="n">
-        <v>2931.5468622465</v>
+        <v>3283.245146696886</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.045648205095</v>
+        <v>3829.74393265548</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958152</v>
+        <v>3998.897997408537</v>
       </c>
       <c r="S11" t="n">
-        <v>3606.278802565836</v>
+        <v>3915.246123592374</v>
       </c>
       <c r="T11" t="n">
-        <v>3386.211575438875</v>
+        <v>3695.178896465413</v>
       </c>
       <c r="U11" t="n">
-        <v>3386.211575438875</v>
+        <v>3695.178896465413</v>
       </c>
       <c r="V11" t="n">
-        <v>3023.594625372702</v>
+        <v>3332.561946399239</v>
       </c>
       <c r="W11" t="n">
-        <v>2618.739170783735</v>
+        <v>3332.561946399239</v>
       </c>
       <c r="X11" t="n">
-        <v>2618.739170783735</v>
+        <v>2913.41948297855</v>
       </c>
       <c r="Y11" t="n">
-        <v>2210.453047083388</v>
+        <v>2505.133359278203</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.1157392504558</v>
+        <v>586.1497049394635</v>
       </c>
       <c r="C12" t="n">
-        <v>472.6592780870981</v>
+        <v>479.6932437761058</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336514</v>
+        <v>384.6029549226591</v>
       </c>
       <c r="E12" t="n">
-        <v>283.4485745606051</v>
+        <v>290.4825402496128</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767667</v>
+        <v>207.0987018657744</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429506</v>
+        <v>121.7136121319583</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916303</v>
+        <v>79.97795994817075</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962063</v>
+        <v>106.0416331086284</v>
       </c>
       <c r="J12" t="n">
-        <v>99.00766741962063</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="K12" t="n">
-        <v>779.741187489998</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="L12" t="n">
-        <v>779.741187489998</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="M12" t="n">
-        <v>779.741187489998</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="N12" t="n">
-        <v>779.741187489998</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="O12" t="n">
-        <v>779.741187489998</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="P12" t="n">
-        <v>1078.272039011557</v>
+        <v>1085.306004700564</v>
       </c>
       <c r="Q12" t="n">
-        <v>1619.010977643632</v>
+        <v>1626.04494333264</v>
       </c>
       <c r="R12" t="n">
-        <v>1736.183755737972</v>
+        <v>1743.21772142698</v>
       </c>
       <c r="S12" t="n">
-        <v>1672.728318186355</v>
+        <v>1679.762283875363</v>
       </c>
       <c r="T12" t="n">
-        <v>1542.549674516957</v>
+        <v>1549.583640205964</v>
       </c>
       <c r="U12" t="n">
-        <v>1366.213127516925</v>
+        <v>1373.247093205933</v>
       </c>
       <c r="V12" t="n">
-        <v>1167.095609578924</v>
+        <v>1174.129575267932</v>
       </c>
       <c r="W12" t="n">
-        <v>981.7728553121183</v>
+        <v>988.8068210011259</v>
       </c>
       <c r="X12" t="n">
-        <v>826.9054195509982</v>
+        <v>833.9393852400059</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.419640330219</v>
+        <v>707.4536060192266</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4400313360943</v>
+        <v>930.4739970251021</v>
       </c>
       <c r="C13" t="n">
-        <v>750.8783198193192</v>
+        <v>757.912285508327</v>
       </c>
       <c r="D13" t="n">
-        <v>585.000327020842</v>
+        <v>592.0342927098498</v>
       </c>
       <c r="E13" t="n">
-        <v>415.2423232715792</v>
+        <v>422.2762889605869</v>
       </c>
       <c r="F13" t="n">
-        <v>238.5352692333354</v>
+        <v>245.5692349223431</v>
       </c>
       <c r="G13" t="n">
-        <v>72.94399425916303</v>
+        <v>79.97795994817075</v>
       </c>
       <c r="H13" t="n">
-        <v>72.94399425916303</v>
+        <v>79.97795994817075</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916303</v>
+        <v>79.97795994817075</v>
       </c>
       <c r="J13" t="n">
-        <v>159.5236794238529</v>
+        <v>166.5576451128606</v>
       </c>
       <c r="K13" t="n">
-        <v>434.2821339949884</v>
+        <v>441.3160996839962</v>
       </c>
       <c r="L13" t="n">
-        <v>852.4920157629494</v>
+        <v>859.5259814519573</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943862</v>
+        <v>1319.00984863287</v>
       </c>
       <c r="N13" t="n">
-        <v>1754.234686101507</v>
+        <v>1761.268651790515</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327288</v>
+        <v>2180.937901016296</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.41082929763</v>
+        <v>2528.444794986638</v>
       </c>
       <c r="Q13" t="n">
-        <v>2689.603604161963</v>
+        <v>2696.637569850971</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.603604161963</v>
+        <v>2696.637569850971</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.364435119278</v>
+        <v>2537.396201148967</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.484988697733</v>
+        <v>2291.516754727422</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.051987950838</v>
+        <v>2013.083753980527</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.096479821269</v>
+        <v>1726.128245850958</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.070075407561</v>
+        <v>1454.10184143725</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.678320740973</v>
+        <v>1208.710086770662</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.258650055081</v>
+        <v>981.2904160847704</v>
       </c>
     </row>
     <row r="14">
@@ -5273,40 +5273,40 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1134.430677610026</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>1134.430677610026</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2291.478512820577</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N14" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912874</v>
@@ -5315,13 +5315,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.756877347711</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309359</v>
+        <v>884.584720838204</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E16" t="n">
-        <v>444.559169283196</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F16" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="17">
@@ -5543,7 +5543,7 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5552,13 +5552,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>130.2240328681073</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>810.9575529384846</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937635</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C19" t="n">
-        <v>790.3368563937635</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D19" t="n">
-        <v>624.4588635952862</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>454.7008598460234</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>277.9938058077796</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>112.4025308336072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5756,10 +5756,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5826,10 +5826,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883919</v>
+        <v>811.754677688395</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716168</v>
+        <v>639.1929661716199</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731395</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238767</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856329</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5914,46 +5914,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774569</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759861</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5978,10 +5978,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6020,16 +6020,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
         <v>2955.199618136697</v>
@@ -6069,25 +6069,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
         <v>444.5591692831957</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6306,25 +6306,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>922.9010479080737</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,10 +6704,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6777,25 +6777,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1628.781199980813</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6880,7 +6880,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S34" t="n">
         <v>2700.681281130895</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>4729.704604581732</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,10 +7011,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2525.85493345824</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2088.129250014524</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1652.636254561829</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1219.278299092984</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835851</v>
+        <v>791.8276588750514</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197252</v>
+        <v>390.8466168711748</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="M38" t="n">
-        <v>2900.691577634134</v>
+        <v>1694.43577435072</v>
       </c>
       <c r="N38" t="n">
-        <v>2900.691577634134</v>
+        <v>2820.166757787167</v>
       </c>
       <c r="O38" t="n">
-        <v>3880.87124420444</v>
+        <v>3562.699858817504</v>
       </c>
       <c r="P38" t="n">
-        <v>4709.181119037836</v>
+        <v>4391.009733650901</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4937.508519609495</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>5106.662584362552</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.77138816171</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3778.332722945604</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3359.607048897775</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570288</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I39" t="n">
-        <v>97.60290339162182</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J39" t="n">
-        <v>422.1612283578341</v>
+        <v>102.133251687251</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>531.5457416057534</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>531.5457416057534</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>531.5457416057534</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>950.5453418998824</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936683</v>
+        <v>778.4004197559672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080672</v>
+        <v>612.9392163303498</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716807</v>
+        <v>443.5980019539471</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946313</v>
+        <v>267.3077372885633</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850169</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758677</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823632</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856841</v>
+        <v>882.9067589840579</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2563.236244375629</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2450.089563024361</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2172.073351650326</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1885.534632893617</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1613.925017852769</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1368.950052559041</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1141.947171246009</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2525.854933458239</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1652.636254561828</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>791.8276588750508</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711748</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="L41" t="n">
-        <v>1367.171683086914</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="M41" t="n">
-        <v>1397.615872992149</v>
+        <v>1456.789208810751</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428595</v>
+        <v>2582.520192247198</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998902</v>
+        <v>3562.699858817504</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832298</v>
+        <v>4391.009733650901</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790892</v>
+        <v>4937.508519609495</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>5106.662584362552</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4803.777062165147</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4544.971548855024</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.77138816171</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570287</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>950.5453418998821</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936673</v>
+        <v>778.4004197559673</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>612.93921633035</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>443.5980019539471</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>267.3077372885633</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>882.9067589840579</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2563.236244375628</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2317.773587326943</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2039.757375952909</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1753.218657196199</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1481.609042155351</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1236.634076861623</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1009.631195548592</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2525.85493345824</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014524</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1652.636254561828</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>791.8276588750508</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711748</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>1456.78920881075</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428596</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998903</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832299</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165147</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855024</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.77138816171</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945604</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570288</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L45" t="n">
-        <v>1402.731750613591</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M45" t="n">
-        <v>1402.731750613591</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N45" t="n">
-        <v>1402.731750613591</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O45" t="n">
-        <v>1402.731750613591</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P45" t="n">
-        <v>1402.731750613591</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>977.0539455316084</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936676</v>
+        <v>804.9090233876934</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080664</v>
+        <v>639.4478199620762</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716799</v>
+        <v>470.1066055856736</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463121</v>
+        <v>293.81634092029</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850159</v>
+        <v>128.6418553189773</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882666</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517568</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>882.906758984058</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341418</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2553.4595535761</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2476.598166656087</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2198.581955282053</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1912.043236525343</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1640.433621484495</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1395.458656190767</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1168.455774877735</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.9280327798234</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.9280327798233</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>585.9280327798233</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>391.3914811997734</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>75.39120623605942</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>585.9280327798234</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>285.3107399934061</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685065</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>393.1716474332605</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685065</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685065</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920772</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685065</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679244</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,10 +8693,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>768.3717310533787</v>
+        <v>116.7930082278885</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>999.7244993521344</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>301.5463146682412</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,22 +8927,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>602.9445958447762</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9240,13 +9240,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>1.918706501888948</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,10 +9954,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10352,13 +10352,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10425,10 +10425,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.7440643176119</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,16 +10598,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.3468123274652</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>463.0908366609706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>750.0334353841795</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949897315</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>433.7499898166691</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>30.7517069749847</v>
+        <v>928.6881511824062</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>85.91007849737707</v>
       </c>
       <c r="N44" t="n">
-        <v>81.9345526149732</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>243.3352893400966</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>1.468969970466674</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.30365378960915</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>122.9308428424048</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>128.4628789093299</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>139.5921776627227</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>3.14686572942388</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627256</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.36072825393998</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.7910216025504</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>130.9928159404426</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>130.9928159404435</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.36072825393998</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.7910216025504</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>111.8470134919887</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.36072825393994</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.79102160255036</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.2363335358518</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>759452.3716176006</v>
+        <v>772713.1324174136</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>759452.3716176006</v>
+        <v>779406.7749098684</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>766663.4591731986</v>
+        <v>779406.7749098684</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632501.5579850683</v>
+        <v>674032.2669901373</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>805597.2844196721</v>
+        <v>805597.2844196723</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>805597.2844196721</v>
+        <v>805597.2844196723</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>805597.2844196721</v>
+        <v>805597.2844196723</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814207.3943177264</v>
+        <v>805809.5735628236</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814207.3943177264</v>
+        <v>805809.5735628236</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814207.3943177264</v>
+        <v>805809.5735628236</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>227862.6109534236</v>
       </c>
       <c r="D2" t="n">
-        <v>227862.6109534236</v>
+        <v>227862.6109534237</v>
       </c>
       <c r="E2" t="n">
-        <v>175802.7936915791</v>
+        <v>187346.1876562395</v>
       </c>
       <c r="F2" t="n">
         <v>223914.4732583748</v>
@@ -26344,16 +26344,16 @@
         <v>223914.4732583748</v>
       </c>
       <c r="M2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="N2" t="n">
-        <v>227862.6109534237</v>
+        <v>224014.8129652034</v>
       </c>
       <c r="O2" t="n">
-        <v>227862.6109534237</v>
+        <v>224014.8129652033</v>
       </c>
       <c r="P2" t="n">
-        <v>227862.6109534239</v>
+        <v>224014.8129652033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>196357.9601292727</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26358.42421742404</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477415</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543119</v>
+        <v>99190.38620900086</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540557</v>
+        <v>79807.80709144796</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>153304.5542086441</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>20997.92775377334</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401244</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400249</v>
+        <v>82787.8845890449</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716064</v>
+        <v>68160.46143052666</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.69038133385402e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>194494.5503941093</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>205320.7071758597</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>85043.57401430389</v>
+        <v>90627.62338232534</v>
       </c>
       <c r="F4" t="n">
         <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>108317.317828463</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="H4" t="n">
-        <v>108317.317828463</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="I4" t="n">
         <v>108317.3178284629</v>
       </c>
       <c r="J4" t="n">
-        <v>108317.317828463</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="K4" t="n">
         <v>108317.3178284629</v>
@@ -26451,13 +26451,13 @@
         <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
-        <v>120278.8232507375</v>
+        <v>108633.0020411373</v>
       </c>
       <c r="O4" t="n">
-        <v>120278.8232507375</v>
+        <v>108633.0020411373</v>
       </c>
       <c r="P4" t="n">
-        <v>120278.8232507375</v>
+        <v>108633.0020411373</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69252.02439301327</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640519</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696391</v>
+        <v>60783.24956060977</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26491,7 +26491,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>77655.95995743989</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>77655.95995743989</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-191978.7438760777</v>
+        <v>-232241.9239629717</v>
       </c>
       <c r="C6" t="n">
-        <v>-49787.44321636785</v>
+        <v>-55224.32009908576</v>
       </c>
       <c r="D6" t="n">
-        <v>-69529.42162361546</v>
+        <v>-28865.89588166172</v>
       </c>
       <c r="E6" t="n">
-        <v>-83992.93631400054</v>
+        <v>-63493.40339744459</v>
       </c>
       <c r="F6" t="n">
-        <v>-67121.56592993629</v>
+        <v>-41952.11460671122</v>
       </c>
       <c r="G6" t="n">
-        <v>37878.91682411928</v>
+        <v>37855.69248473674</v>
       </c>
       <c r="H6" t="n">
-        <v>37878.91682411928</v>
+        <v>37855.6924847367</v>
       </c>
       <c r="I6" t="n">
-        <v>37878.91682411934</v>
+        <v>37855.6924847367</v>
       </c>
       <c r="J6" t="n">
-        <v>-73135.54852087077</v>
+        <v>-115448.8617239074</v>
       </c>
       <c r="K6" t="n">
-        <v>37878.91682411931</v>
+        <v>16857.76473096337</v>
       </c>
       <c r="L6" t="n">
-        <v>15633.68956010691</v>
+        <v>37855.6924847367</v>
       </c>
       <c r="M6" t="n">
-        <v>-61705.46504988303</v>
+        <v>-44932.19210430825</v>
       </c>
       <c r="N6" t="n">
-        <v>-56304.97466056421</v>
+        <v>-30457.24456971349</v>
       </c>
       <c r="O6" t="n">
-        <v>32068.1729765966</v>
+        <v>37703.21686081314</v>
       </c>
       <c r="P6" t="n">
-        <v>32068.1729765967</v>
+        <v>37703.21686081307</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>585.9280327798234</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.799928239538</v>
+        <v>999.7244993521343</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
     </row>
   </sheetData>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.612976667317525e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>585.9280327798234</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>81.58717382803354</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840212</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710315</v>
+        <v>332.2092927442774</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452074</v>
+        <v>278.5360040326112</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>585.9280327798234</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>81.58717382803354</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840212</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710313</v>
+        <v>332.2092927442774</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081853</v>
+        <v>276.9411467385038</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>585.9280327798234</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>81.58717382803354</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840212</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710315</v>
+        <v>332.2092927442774</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452074</v>
+        <v>278.5360040326112</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>370.3579796189765</v>
-      </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>41.1615968677209</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>67.8842041684461</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>143.9612034481416</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>253.4649560972571</v>
       </c>
       <c r="D5" t="n">
-        <v>106.3832346317399</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.26974202066685</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>40.15930123557294</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,16 +27910,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>173.0407669418757</v>
+        <v>11.64838566658648</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>7.850344641985942</v>
+        <v>33.27974144948212</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874743</v>
+        <v>0.4126214791314312</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314773</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.9280327798234</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.9280327798233</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>585.9280327798233</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>391.3914811997734</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>75.39120623605942</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>585.9280327798234</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132075</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>285.3107399934061</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685065</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>393.1716474332605</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685065</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685065</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920772</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685065</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679244</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>768.3717310533787</v>
+        <v>116.7930082278885</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>999.7244993521344</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35504,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>301.5463146682412</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>602.9445958447762</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35723,7 +35723,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35960,13 +35960,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>1.918706501888948</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080445</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36437,10 +36437,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37072,13 +37072,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37145,10 +37145,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.7440643176119</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37318,16 +37318,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.3468123274652</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,25 +37543,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>463.0908366609706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>750.0334353841795</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949897315</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>433.7499898166691</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778281</v>
+        <v>87.8668489182121</v>
       </c>
       <c r="K40" t="n">
-        <v>293.769502834844</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>464.53773984369</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343482</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>30.7517069749847</v>
+        <v>928.6881511824062</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>87.8668489182121</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>464.53773984369</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>85.91007849737707</v>
       </c>
       <c r="N44" t="n">
-        <v>81.9345526149732</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889937</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>243.3352893400966</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821214</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>277.9464139752281</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>464.5377398436901</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343482</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>424.320954030426</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
